--- a/multiplier.xlsx
+++ b/multiplier.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\Stage\Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B94A4-C8CC-4544-B8F5-A44CDFD998B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA20008-2238-4A26-B914-59670CB853B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2B35C60-1787-4AC8-863B-1AB51E3250BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A2B35C60-1787-4AC8-863B-1AB51E3250BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Yaw" sheetId="1" r:id="rId1"/>
+    <sheet name="Roll" sheetId="2" r:id="rId2"/>
+    <sheet name="Pitcj" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>89 = 2000</t>
   </si>
@@ -46,6 +48,45 @@
   </si>
   <si>
     <t>357 = 7977,778</t>
+  </si>
+  <si>
+    <t>Currentpos</t>
+  </si>
+  <si>
+    <t>tilt</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Accel</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>up/down</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>mutliplier</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>14.35</t>
+  </si>
+  <si>
+    <t>2,3= 92,26667</t>
+  </si>
+  <si>
+    <t>8.10 = 369,0667</t>
+  </si>
+  <si>
+    <t>12 = 553,6</t>
   </si>
 </sst>
 </file>
@@ -69,12 +110,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,9 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A4E73C-28BB-4E9E-8E5C-D00C14C4E39D}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,4 +610,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3540A432-5450-436A-BE8E-1C1CFEF6F857}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87039DD8-D6C7-43B1-B10E-751F9906395A}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <f>(2*8)/1.8*10.38</f>
+        <v>92.26666666666668</v>
+      </c>
+      <c r="O1">
+        <f>(8*8)/1.8*10.38</f>
+        <v>369.06666666666672</v>
+      </c>
+      <c r="Q1">
+        <f>(12*8)/1.8*10.38</f>
+        <v>553.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5000</v>
+      </c>
+      <c r="B2">
+        <v>4000</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8000</v>
+      </c>
+      <c r="B3">
+        <v>7000</v>
+      </c>
+      <c r="D3">
+        <v>1.67</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <f>M1/2.3</f>
+        <v>40.115942028985515</v>
+      </c>
+      <c r="O3">
+        <f>O1/8.1</f>
+        <v>45.563786008230458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>9000</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>10.45</v>
+      </c>
+      <c r="M4">
+        <f>M3*2</f>
+        <v>80.23188405797103</v>
+      </c>
+      <c r="O4">
+        <f>O3*8</f>
+        <v>364.51028806584367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14000</v>
+      </c>
+      <c r="B5">
+        <v>13000</v>
+      </c>
+      <c r="D5">
+        <v>1.36</v>
+      </c>
+      <c r="M5">
+        <f>(2*8)/1.8*9.026</f>
+        <v>80.231111111111119</v>
+      </c>
+      <c r="O5">
+        <f>(8*8)/1.8*10.2519</f>
+        <v>364.512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="O7">
+        <v>10.251899999999999</v>
+      </c>
+      <c r="Q7">
+        <v>10.38</v>
+      </c>
+      <c r="S7">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f>SUM(M7,O7,Q7,S7)/4</f>
+        <v>10.009475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P14" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P15" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>-0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>